--- a/Data/EC/NIT-9004863700.xlsx
+++ b/Data/EC/NIT-9004863700.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E4E43DD-0DA9-4201-AAFC-B2D4F0E66C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{858A9DC2-E02E-4700-9C12-2CC3C5CB4D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09A8490F-94A6-45DC-AA62-AECFB9F0CA40}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{064A4B21-7ACE-49B6-8A96-E700777681BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="136">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,325 +71,346 @@
     <t>DIANA CAROLINA PARRA CASTANO</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
     <t>1612</t>
   </si>
   <si>
+    <t>1143359273</t>
+  </si>
+  <si>
+    <t>JISETH PAOLA CARMONA CASTRO</t>
+  </si>
+  <si>
     <t>1152704718</t>
   </si>
   <si>
     <t>MARIANA CUETO AGUDELO</t>
   </si>
   <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1143359273</t>
-  </si>
-  <si>
-    <t>JISETH PAOLA CARMONA CASTRO</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1003069985</t>
+  </si>
+  <si>
+    <t>GABRIELA NEGRETTE PIZARRO</t>
+  </si>
+  <si>
+    <t>1001975078</t>
+  </si>
+  <si>
+    <t>WENDY DAYANA NIEVES BLANCO</t>
+  </si>
+  <si>
+    <t>1007742857</t>
+  </si>
+  <si>
+    <t>JAKELINE ALMANZA FUENTES</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -803,7 +824,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5435D5AB-27BB-AA40-42F4-356FA553ECBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49552985-0F0D-6372-E985-297079FF84A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1154,8 +1175,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E9C04F-CD27-4C29-A8F6-B6C24DBE06AC}">
-  <dimension ref="B2:J220"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56792514-B9C9-455C-912C-BDE9AA1E023F}">
+  <dimension ref="B2:J234"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1179,7 +1200,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1224,7 +1245,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1256,12 +1277,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7114111</v>
+        <v>7669674</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1272,17 +1293,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F13" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1309,13 +1330,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1346,19 +1367,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>277858</v>
+        <v>31321</v>
       </c>
       <c r="G17" s="18">
-        <v>6946444</v>
+        <v>783026</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1375,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>31321</v>
@@ -1398,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>31321</v>
@@ -1421,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>31321</v>
@@ -1444,7 +1465,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>31321</v>
@@ -1467,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>31321</v>
@@ -1490,7 +1511,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>31321</v>
@@ -1513,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>31321</v>
@@ -1530,19 +1551,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G25" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1559,7 +1580,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>31321</v>
@@ -1582,7 +1603,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>31321</v>
@@ -1599,19 +1620,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G28" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1628,7 +1649,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>31321</v>
@@ -1645,19 +1666,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G30" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1691,19 +1712,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G32" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1720,7 +1741,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>31321</v>
@@ -1737,19 +1758,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G34" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1760,19 +1781,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G35" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1789,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>31321</v>
@@ -1812,7 +1833,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>31321</v>
@@ -1829,19 +1850,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G38" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1858,7 +1879,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>31321</v>
@@ -1875,19 +1896,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G40" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1904,7 +1925,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>31321</v>
@@ -1921,19 +1942,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G42" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1944,19 +1965,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G43" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1973,7 +1994,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>31321</v>
@@ -1990,19 +2011,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G45" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2019,7 +2040,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>31321</v>
@@ -2036,19 +2057,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G47" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2065,7 +2086,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>31321</v>
@@ -2082,19 +2103,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G49" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2111,7 +2132,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>31321</v>
@@ -2128,19 +2149,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G51" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2157,7 +2178,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>31321</v>
@@ -2174,19 +2195,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G53" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2203,7 +2224,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>31321</v>
@@ -2226,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>31321</v>
@@ -2243,19 +2264,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G56" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2266,19 +2287,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G57" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2295,7 +2316,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>31321</v>
@@ -2312,19 +2333,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G59" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2341,7 +2362,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>31321</v>
@@ -2364,7 +2385,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>31321</v>
@@ -2381,19 +2402,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G62" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2404,19 +2425,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G63" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2433,7 +2454,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>31321</v>
@@ -2450,19 +2471,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G65" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2479,7 +2500,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>31321</v>
@@ -2502,7 +2523,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
         <v>31321</v>
@@ -2519,19 +2540,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G68" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2548,7 +2569,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
         <v>31321</v>
@@ -2565,19 +2586,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G70" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2588,19 +2609,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G71" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2617,7 +2638,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
         <v>31321</v>
@@ -2634,19 +2655,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G73" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2663,7 +2684,7 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
         <v>31321</v>
@@ -2680,19 +2701,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="F75" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G75" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2709,7 +2730,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F76" s="18">
         <v>31321</v>
@@ -2726,19 +2747,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F77" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G77" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2755,7 +2776,7 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F78" s="18">
         <v>31321</v>
@@ -2772,19 +2793,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F79" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G79" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2801,7 +2822,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F80" s="18">
         <v>31321</v>
@@ -2824,7 +2845,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="F81" s="18">
         <v>31321</v>
@@ -2841,19 +2862,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F82" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G82" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2864,19 +2885,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F83" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G83" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2893,7 +2914,7 @@
         <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F84" s="18">
         <v>31321</v>
@@ -2916,7 +2937,7 @@
         <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F85" s="18">
         <v>31321</v>
@@ -2933,19 +2954,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F86" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G86" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2962,7 +2983,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F87" s="18">
         <v>31321</v>
@@ -2979,19 +3000,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F88" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G88" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3008,7 +3029,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F89" s="18">
         <v>31321</v>
@@ -3025,19 +3046,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F90" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G90" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3054,7 +3075,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F91" s="18">
         <v>31321</v>
@@ -3071,19 +3092,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F92" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G92" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3094,19 +3115,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="F93" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G93" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3123,7 +3144,7 @@
         <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="F94" s="18">
         <v>31321</v>
@@ -3140,19 +3161,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="F95" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G95" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3169,7 +3190,7 @@
         <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="F96" s="18">
         <v>31321</v>
@@ -3192,7 +3213,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F97" s="18">
         <v>31321</v>
@@ -3209,19 +3230,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="F98" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G98" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3238,7 +3259,7 @@
         <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="F99" s="18">
         <v>31321</v>
@@ -3255,19 +3276,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F100" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G100" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3284,7 +3305,7 @@
         <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="F101" s="18">
         <v>31321</v>
@@ -3301,19 +3322,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="F102" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G102" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3324,19 +3345,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F103" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G103" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3353,7 +3374,7 @@
         <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="F104" s="18">
         <v>31321</v>
@@ -3376,7 +3397,7 @@
         <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="F105" s="18">
         <v>31321</v>
@@ -3393,19 +3414,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="F106" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G106" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3416,19 +3437,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="F107" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G107" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3445,7 +3466,7 @@
         <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F108" s="18">
         <v>31321</v>
@@ -3468,7 +3489,7 @@
         <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="F109" s="18">
         <v>31321</v>
@@ -3485,19 +3506,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="F110" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G110" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3508,19 +3529,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F111" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G111" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3537,7 +3558,7 @@
         <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F112" s="18">
         <v>31321</v>
@@ -3554,19 +3575,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="F113" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G113" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3583,7 +3604,7 @@
         <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="F114" s="18">
         <v>31321</v>
@@ -3600,19 +3621,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="F115" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G115" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3629,7 +3650,7 @@
         <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="F116" s="18">
         <v>31321</v>
@@ -3646,19 +3667,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F117" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G117" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3675,7 +3696,7 @@
         <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="F118" s="18">
         <v>31321</v>
@@ -3692,19 +3713,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="F119" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G119" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3715,19 +3736,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F120" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G120" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3738,13 +3759,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="F121" s="18">
         <v>38002</v>
@@ -3761,19 +3782,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F122" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G122" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3784,19 +3805,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F123" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G123" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3807,13 +3828,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="F124" s="18">
         <v>38002</v>
@@ -3830,13 +3851,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="F125" s="18">
         <v>38002</v>
@@ -3853,19 +3874,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="F126" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G126" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3876,13 +3897,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="F127" s="18">
         <v>38002</v>
@@ -3899,19 +3920,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="F128" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G128" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3922,19 +3943,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F129" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G129" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3945,13 +3966,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E130" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="F130" s="18">
         <v>38002</v>
@@ -3968,13 +3989,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D131" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E131" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="F131" s="18">
         <v>38002</v>
@@ -3991,19 +4012,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="F132" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G132" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4014,19 +4035,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="F133" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G133" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4037,13 +4058,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="F134" s="18">
         <v>38002</v>
@@ -4060,19 +4081,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="F135" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G135" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4083,13 +4104,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="F136" s="18">
         <v>38002</v>
@@ -4106,19 +4127,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F137" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G137" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4129,13 +4150,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="F138" s="18">
         <v>38002</v>
@@ -4152,13 +4173,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F139" s="18">
         <v>38002</v>
@@ -4175,19 +4196,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="F140" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G140" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4198,13 +4219,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="F141" s="18">
         <v>38002</v>
@@ -4221,19 +4242,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F142" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G142" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4244,19 +4265,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="F143" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G143" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4267,13 +4288,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="F144" s="18">
         <v>38002</v>
@@ -4290,13 +4311,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="F145" s="18">
         <v>38002</v>
@@ -4313,19 +4334,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="F146" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G146" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4336,13 +4357,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="F147" s="18">
         <v>38002</v>
@@ -4359,19 +4380,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="F148" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G148" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4382,19 +4403,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F149" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G149" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4405,13 +4426,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F150" s="18">
         <v>38002</v>
@@ -4428,19 +4449,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="F151" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G151" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4451,13 +4472,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="F152" s="18">
         <v>38002</v>
@@ -4474,13 +4495,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="F153" s="18">
         <v>38002</v>
@@ -4497,19 +4518,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F154" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G154" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4520,19 +4541,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F155" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G155" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4543,13 +4564,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="F156" s="18">
         <v>38002</v>
@@ -4566,19 +4587,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="F157" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G157" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4589,13 +4610,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="F158" s="18">
         <v>38002</v>
@@ -4612,13 +4633,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F159" s="18">
         <v>38002</v>
@@ -4635,19 +4656,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="F160" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G160" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4658,19 +4679,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F161" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G161" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4681,13 +4702,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="F162" s="18">
         <v>38002</v>
@@ -4704,13 +4725,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="F163" s="18">
         <v>38002</v>
@@ -4727,19 +4748,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="F164" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G164" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4750,19 +4771,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="F165" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G165" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4773,13 +4794,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F166" s="18">
         <v>38002</v>
@@ -4796,13 +4817,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="F167" s="18">
         <v>38002</v>
@@ -4819,19 +4840,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="F168" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G168" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4842,19 +4863,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F169" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G169" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4865,13 +4886,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F170" s="18">
         <v>38002</v>
@@ -4888,19 +4909,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F171" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G171" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4911,13 +4932,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F172" s="18">
         <v>38002</v>
@@ -4934,19 +4955,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F173" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G173" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4957,13 +4978,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F174" s="18">
         <v>38002</v>
@@ -4980,19 +5001,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F175" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G175" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5003,13 +5024,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F176" s="18">
         <v>38002</v>
@@ -5026,13 +5047,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F177" s="18">
         <v>38002</v>
@@ -5049,19 +5070,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F178" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G178" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5072,13 +5093,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F179" s="18">
         <v>38002</v>
@@ -5095,19 +5116,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F180" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G180" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5118,13 +5139,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F181" s="18">
         <v>38002</v>
@@ -5141,19 +5162,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F182" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G182" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5164,19 +5185,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F183" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G183" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5187,13 +5208,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F184" s="18">
         <v>38002</v>
@@ -5210,19 +5231,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="F185" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G185" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5233,13 +5254,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F186" s="18">
         <v>38002</v>
@@ -5256,13 +5277,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F187" s="18">
         <v>38002</v>
@@ -5279,19 +5300,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="F188" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G188" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5302,13 +5323,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="F189" s="18">
         <v>38002</v>
@@ -5325,19 +5346,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F190" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G190" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5348,19 +5369,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="F191" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G191" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5371,13 +5392,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="F192" s="18">
         <v>38002</v>
@@ -5394,13 +5415,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="F193" s="18">
         <v>38002</v>
@@ -5417,19 +5438,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F194" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G194" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5440,13 +5461,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F195" s="18">
         <v>38002</v>
@@ -5463,19 +5484,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F196" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G196" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5486,19 +5507,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F197" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G197" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5509,13 +5530,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F198" s="18">
         <v>38002</v>
@@ -5532,13 +5553,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F199" s="18">
         <v>38002</v>
@@ -5555,19 +5576,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F200" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G200" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5578,13 +5599,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F201" s="18">
         <v>38002</v>
@@ -5601,19 +5622,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F202" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G202" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5624,19 +5645,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F203" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G203" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5647,13 +5668,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F204" s="18">
         <v>38002</v>
@@ -5670,19 +5691,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F205" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G205" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5693,13 +5714,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F206" s="18">
         <v>38002</v>
@@ -5716,13 +5737,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F207" s="18">
         <v>38002</v>
@@ -5739,19 +5760,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F208" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G208" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5762,13 +5783,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F209" s="18">
         <v>38002</v>
@@ -5785,19 +5806,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F210" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G210" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5808,19 +5829,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F211" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G211" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5831,13 +5852,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F212" s="18">
         <v>38002</v>
@@ -5854,13 +5875,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F213" s="18">
         <v>38002</v>
@@ -5873,56 +5894,378 @@
       <c r="J213" s="20"/>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B214" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D214" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E214" s="22" t="s">
+      <c r="B214" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E214" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F214" s="18">
+        <v>38002</v>
+      </c>
+      <c r="G214" s="18">
+        <v>950038</v>
+      </c>
+      <c r="H214" s="19"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="20"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B215" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E215" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F215" s="18">
+        <v>38002</v>
+      </c>
+      <c r="G215" s="18">
+        <v>950038</v>
+      </c>
+      <c r="H215" s="19"/>
+      <c r="I215" s="19"/>
+      <c r="J215" s="20"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B216" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F214" s="24">
-        <v>31321</v>
-      </c>
-      <c r="G214" s="24">
-        <v>783026</v>
-      </c>
-      <c r="H214" s="25"/>
-      <c r="I214" s="25"/>
-      <c r="J214" s="26"/>
+      <c r="D216" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E216" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F216" s="18">
+        <v>277858</v>
+      </c>
+      <c r="G216" s="18">
+        <v>6946444</v>
+      </c>
+      <c r="H216" s="19"/>
+      <c r="I216" s="19"/>
+      <c r="J216" s="20"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B217" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E217" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F217" s="18">
+        <v>40520</v>
+      </c>
+      <c r="G217" s="18">
+        <v>1013000</v>
+      </c>
+      <c r="H217" s="19"/>
+      <c r="I217" s="19"/>
+      <c r="J217" s="20"/>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B218" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D218" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E218" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218" s="18">
+        <v>40520</v>
+      </c>
+      <c r="G218" s="18">
+        <v>1013000</v>
+      </c>
+      <c r="H218" s="19"/>
+      <c r="I218" s="19"/>
+      <c r="J218" s="20"/>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B219" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C219" s="32"/>
-      <c r="H219" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
+      <c r="B219" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E219" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F219" s="18">
+        <v>40520</v>
+      </c>
+      <c r="G219" s="18">
+        <v>1013000</v>
+      </c>
+      <c r="H219" s="19"/>
+      <c r="I219" s="19"/>
+      <c r="J219" s="20"/>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B220" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C220" s="32"/>
-      <c r="H220" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
+      <c r="B220" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E220" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F220" s="18">
+        <v>40520</v>
+      </c>
+      <c r="G220" s="18">
+        <v>1013000</v>
+      </c>
+      <c r="H220" s="19"/>
+      <c r="I220" s="19"/>
+      <c r="J220" s="20"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B221" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D221" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E221" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F221" s="18">
+        <v>40520</v>
+      </c>
+      <c r="G221" s="18">
+        <v>1013000</v>
+      </c>
+      <c r="H221" s="19"/>
+      <c r="I221" s="19"/>
+      <c r="J221" s="20"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B222" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D222" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E222" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F222" s="18">
+        <v>40520</v>
+      </c>
+      <c r="G222" s="18">
+        <v>1013000</v>
+      </c>
+      <c r="H222" s="19"/>
+      <c r="I222" s="19"/>
+      <c r="J222" s="20"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B223" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D223" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E223" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F223" s="18">
+        <v>40520</v>
+      </c>
+      <c r="G223" s="18">
+        <v>1013000</v>
+      </c>
+      <c r="H223" s="19"/>
+      <c r="I223" s="19"/>
+      <c r="J223" s="20"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B224" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D224" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E224" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224" s="18">
+        <v>40520</v>
+      </c>
+      <c r="G224" s="18">
+        <v>1013000</v>
+      </c>
+      <c r="H224" s="19"/>
+      <c r="I224" s="19"/>
+      <c r="J224" s="20"/>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B225" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D225" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E225" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F225" s="18">
+        <v>40520</v>
+      </c>
+      <c r="G225" s="18">
+        <v>1013000</v>
+      </c>
+      <c r="H225" s="19"/>
+      <c r="I225" s="19"/>
+      <c r="J225" s="20"/>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B226" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D226" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E226" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F226" s="18">
+        <v>40520</v>
+      </c>
+      <c r="G226" s="18">
+        <v>1013000</v>
+      </c>
+      <c r="H226" s="19"/>
+      <c r="I226" s="19"/>
+      <c r="J226" s="20"/>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B227" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D227" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E227" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F227" s="18">
+        <v>40520</v>
+      </c>
+      <c r="G227" s="18">
+        <v>1013000</v>
+      </c>
+      <c r="H227" s="19"/>
+      <c r="I227" s="19"/>
+      <c r="J227" s="20"/>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B228" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D228" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E228" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F228" s="24">
+        <v>40520</v>
+      </c>
+      <c r="G228" s="24">
+        <v>1013000</v>
+      </c>
+      <c r="H228" s="25"/>
+      <c r="I228" s="25"/>
+      <c r="J228" s="26"/>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B233" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C233" s="32"/>
+      <c r="H233" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B234" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C234" s="32"/>
+      <c r="H234" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="H220:J220"/>
-    <mergeCell ref="H219:J219"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="H234:J234"/>
+    <mergeCell ref="H233:J233"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004863700.xlsx
+++ b/Data/EC/NIT-9004863700.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{858A9DC2-E02E-4700-9C12-2CC3C5CB4D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25E9CAAA-B4C6-45D3-89A1-2548809443A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{064A4B21-7ACE-49B6-8A96-E700777681BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FA28EA8A-869C-493A-9085-BCC333E132A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="131">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,346 +71,331 @@
     <t>DIANA CAROLINA PARRA CASTANO</t>
   </si>
   <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1152704718</t>
+  </si>
+  <si>
+    <t>MARIANA CUETO AGUDELO</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1143359273</t>
+  </si>
+  <si>
+    <t>JISETH PAOLA CARMONA CASTRO</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1143359273</t>
-  </si>
-  <si>
-    <t>JISETH PAOLA CARMONA CASTRO</t>
-  </si>
-  <si>
-    <t>1152704718</t>
-  </si>
-  <si>
-    <t>MARIANA CUETO AGUDELO</t>
-  </si>
-  <si>
-    <t>1003069985</t>
-  </si>
-  <si>
-    <t>GABRIELA NEGRETTE PIZARRO</t>
-  </si>
-  <si>
-    <t>1001975078</t>
-  </si>
-  <si>
-    <t>WENDY DAYANA NIEVES BLANCO</t>
-  </si>
-  <si>
-    <t>1007742857</t>
-  </si>
-  <si>
-    <t>JAKELINE ALMANZA FUENTES</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -509,7 +494,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -522,9 +509,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -724,23 +709,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,10 +753,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -824,7 +809,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49552985-0F0D-6372-E985-297079FF84A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0085CBFE-2995-E8EC-44B9-A15BF1D25340}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,8 +1160,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56792514-B9C9-455C-912C-BDE9AA1E023F}">
-  <dimension ref="B2:J234"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A85447-7C11-43CB-A44E-82BB16E653B1}">
+  <dimension ref="B2:J224"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1200,7 +1185,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1245,7 +1230,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1277,12 +1262,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7669674</v>
+        <v>7252757</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1293,17 +1278,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F13" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1330,13 +1315,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1367,19 +1352,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31321</v>
+        <v>277858</v>
       </c>
       <c r="G17" s="18">
-        <v>783026</v>
+        <v>6946444</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1396,7 +1381,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>31321</v>
@@ -1419,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>31321</v>
@@ -1442,7 +1427,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>31321</v>
@@ -1465,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>31321</v>
@@ -1488,7 +1473,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>31321</v>
@@ -1511,7 +1496,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>31321</v>
@@ -1534,7 +1519,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>31321</v>
@@ -1557,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>31321</v>
@@ -1574,19 +1559,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G26" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1603,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>31321</v>
@@ -1620,19 +1605,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G28" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1649,7 +1634,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>31321</v>
@@ -1666,19 +1651,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G30" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1712,19 +1697,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G32" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1741,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
         <v>31321</v>
@@ -1758,19 +1743,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F34" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G34" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1787,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F35" s="18">
         <v>31321</v>
@@ -1804,19 +1789,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F36" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G36" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1833,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F37" s="18">
         <v>31321</v>
@@ -1850,19 +1835,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F38" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G38" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1879,7 +1864,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F39" s="18">
         <v>31321</v>
@@ -1896,19 +1881,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F40" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G40" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1925,7 +1910,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F41" s="18">
         <v>31321</v>
@@ -1942,19 +1927,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F42" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G42" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1971,7 +1956,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F43" s="18">
         <v>31321</v>
@@ -1988,19 +1973,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F44" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G44" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2017,7 +2002,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F45" s="18">
         <v>31321</v>
@@ -2034,19 +2019,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F46" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G46" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2063,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F47" s="18">
         <v>31321</v>
@@ -2080,19 +2065,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F48" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G48" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2109,7 +2094,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F49" s="18">
         <v>31321</v>
@@ -2126,19 +2111,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F50" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G50" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2155,7 +2140,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F51" s="18">
         <v>31321</v>
@@ -2172,19 +2157,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F52" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G52" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2201,7 +2186,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F53" s="18">
         <v>31321</v>
@@ -2218,19 +2203,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F54" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G54" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2247,7 +2232,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F55" s="18">
         <v>31321</v>
@@ -2264,19 +2249,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F56" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G56" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2293,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F57" s="18">
         <v>31321</v>
@@ -2310,19 +2295,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F58" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G58" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2339,7 +2324,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F59" s="18">
         <v>31321</v>
@@ -2356,19 +2341,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F60" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G60" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2385,7 +2370,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F61" s="18">
         <v>31321</v>
@@ -2402,19 +2387,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F62" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G62" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2431,7 +2416,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F63" s="18">
         <v>31321</v>
@@ -2448,19 +2433,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F64" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G64" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2477,7 +2462,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F65" s="18">
         <v>31321</v>
@@ -2494,19 +2479,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F66" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G66" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2523,7 +2508,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F67" s="18">
         <v>31321</v>
@@ -2540,19 +2525,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F68" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G68" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2569,7 +2554,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F69" s="18">
         <v>31321</v>
@@ -2586,19 +2571,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F70" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G70" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2615,7 +2600,7 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F71" s="18">
         <v>31321</v>
@@ -2632,19 +2617,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F72" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G72" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2661,7 +2646,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F73" s="18">
         <v>31321</v>
@@ -2678,19 +2663,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F74" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G74" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2707,7 +2692,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F75" s="18">
         <v>31321</v>
@@ -2724,19 +2709,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F76" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G76" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2753,7 +2738,7 @@
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F77" s="18">
         <v>31321</v>
@@ -2770,19 +2755,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F78" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G78" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2799,7 +2784,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F79" s="18">
         <v>31321</v>
@@ -2816,19 +2801,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F80" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G80" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2845,7 +2830,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F81" s="18">
         <v>31321</v>
@@ -2862,19 +2847,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F82" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G82" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2891,7 +2876,7 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F83" s="18">
         <v>31321</v>
@@ -2908,19 +2893,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F84" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G84" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2937,7 +2922,7 @@
         <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F85" s="18">
         <v>31321</v>
@@ -2954,19 +2939,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F86" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G86" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2983,7 +2968,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F87" s="18">
         <v>31321</v>
@@ -3000,19 +2985,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F88" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G88" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3029,7 +3014,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F89" s="18">
         <v>31321</v>
@@ -3046,19 +3031,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F90" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G90" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3075,7 +3060,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="F91" s="18">
         <v>31321</v>
@@ -3092,19 +3077,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="F92" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G92" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3121,7 +3106,7 @@
         <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F93" s="18">
         <v>31321</v>
@@ -3138,19 +3123,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F94" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G94" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3167,7 +3152,7 @@
         <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="F95" s="18">
         <v>31321</v>
@@ -3184,19 +3169,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="F96" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G96" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3213,7 +3198,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F97" s="18">
         <v>31321</v>
@@ -3230,19 +3215,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F98" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G98" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3259,7 +3244,7 @@
         <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="F99" s="18">
         <v>31321</v>
@@ -3276,19 +3261,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F100" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G100" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3305,7 +3290,7 @@
         <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="F101" s="18">
         <v>31321</v>
@@ -3322,19 +3307,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="F102" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G102" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3351,7 +3336,7 @@
         <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F103" s="18">
         <v>31321</v>
@@ -3368,19 +3353,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="F104" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G104" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3397,7 +3382,7 @@
         <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="F105" s="18">
         <v>31321</v>
@@ -3414,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="F106" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G106" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3443,7 +3428,7 @@
         <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="F107" s="18">
         <v>31321</v>
@@ -3460,19 +3445,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="F108" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G108" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3489,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="F109" s="18">
         <v>31321</v>
@@ -3506,19 +3491,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="F110" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G110" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3535,7 +3520,7 @@
         <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="F111" s="18">
         <v>31321</v>
@@ -3552,19 +3537,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="F112" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G112" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3581,7 +3566,7 @@
         <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="F113" s="18">
         <v>31321</v>
@@ -3598,19 +3583,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="F114" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G114" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3627,7 +3612,7 @@
         <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="F115" s="18">
         <v>31321</v>
@@ -3644,19 +3629,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="F116" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G116" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3673,7 +3658,7 @@
         <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="F117" s="18">
         <v>31321</v>
@@ -3690,19 +3675,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F118" s="18">
-        <v>31321</v>
+        <v>38002</v>
       </c>
       <c r="G118" s="18">
-        <v>783026</v>
+        <v>950038</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3719,7 +3704,7 @@
         <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="F119" s="18">
         <v>31321</v>
@@ -3736,13 +3721,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F120" s="18">
         <v>38002</v>
@@ -3759,19 +3744,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F121" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G121" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3782,13 +3767,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F122" s="18">
         <v>38002</v>
@@ -3805,19 +3790,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F123" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G123" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3828,13 +3813,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F124" s="18">
         <v>38002</v>
@@ -3851,19 +3836,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="F125" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G125" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3874,13 +3859,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="F126" s="18">
         <v>38002</v>
@@ -3897,19 +3882,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="F127" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G127" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3920,13 +3905,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F128" s="18">
         <v>38002</v>
@@ -3943,19 +3928,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F129" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G129" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3966,13 +3951,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F130" s="18">
         <v>38002</v>
@@ -3989,19 +3974,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="F131" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G131" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4012,13 +3997,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F132" s="18">
         <v>38002</v>
@@ -4035,19 +4020,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="F133" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G133" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4058,13 +4043,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="F134" s="18">
         <v>38002</v>
@@ -4081,19 +4066,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F135" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G135" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4104,13 +4089,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F136" s="18">
         <v>38002</v>
@@ -4127,19 +4112,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="F137" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G137" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4150,13 +4135,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F138" s="18">
         <v>38002</v>
@@ -4173,19 +4158,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F139" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G139" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4196,13 +4181,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="F140" s="18">
         <v>38002</v>
@@ -4219,19 +4204,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="F141" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G141" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4242,13 +4227,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="F142" s="18">
         <v>38002</v>
@@ -4265,19 +4250,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F143" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G143" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4288,13 +4273,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F144" s="18">
         <v>38002</v>
@@ -4311,19 +4296,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="F145" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G145" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4334,13 +4319,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="F146" s="18">
         <v>38002</v>
@@ -4357,19 +4342,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F147" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G147" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4380,13 +4365,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F148" s="18">
         <v>38002</v>
@@ -4403,19 +4388,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="F149" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G149" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4426,13 +4411,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F150" s="18">
         <v>38002</v>
@@ -4449,19 +4434,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F151" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G151" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4472,13 +4457,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F152" s="18">
         <v>38002</v>
@@ -4495,19 +4480,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F153" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G153" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4518,13 +4503,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F154" s="18">
         <v>38002</v>
@@ -4541,19 +4526,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F155" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G155" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4564,13 +4549,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="F156" s="18">
         <v>38002</v>
@@ -4587,19 +4572,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="F157" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G157" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4610,13 +4595,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F158" s="18">
         <v>38002</v>
@@ -4633,19 +4618,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F159" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G159" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4656,13 +4641,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="F160" s="18">
         <v>38002</v>
@@ -4679,19 +4664,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F161" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G161" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4702,13 +4687,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F162" s="18">
         <v>38002</v>
@@ -4725,19 +4710,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F163" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G163" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4748,13 +4733,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="F164" s="18">
         <v>38002</v>
@@ -4771,19 +4756,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="F165" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G165" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4794,13 +4779,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F166" s="18">
         <v>38002</v>
@@ -4817,19 +4802,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F167" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G167" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4840,13 +4825,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="F168" s="18">
         <v>38002</v>
@@ -4863,19 +4848,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F169" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G169" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4886,13 +4871,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F170" s="18">
         <v>38002</v>
@@ -4909,19 +4894,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="F171" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G171" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4932,13 +4917,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F172" s="18">
         <v>38002</v>
@@ -4955,19 +4940,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F173" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G173" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4978,13 +4963,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F174" s="18">
         <v>38002</v>
@@ -5001,19 +4986,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F175" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G175" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5024,13 +5009,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="F176" s="18">
         <v>38002</v>
@@ -5047,19 +5032,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F177" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G177" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5070,13 +5055,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F178" s="18">
         <v>38002</v>
@@ -5093,19 +5078,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F179" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G179" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5116,13 +5101,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="F180" s="18">
         <v>38002</v>
@@ -5139,19 +5124,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="F181" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G181" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5162,13 +5147,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F182" s="18">
         <v>38002</v>
@@ -5185,19 +5170,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="F183" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G183" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5208,13 +5193,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F184" s="18">
         <v>38002</v>
@@ -5231,19 +5216,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="F185" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G185" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5254,13 +5239,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="F186" s="18">
         <v>38002</v>
@@ -5277,19 +5262,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F187" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G187" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5300,13 +5285,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="F188" s="18">
         <v>38002</v>
@@ -5323,19 +5308,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F189" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G189" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5346,13 +5331,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F190" s="18">
         <v>38002</v>
@@ -5369,19 +5354,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="F191" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G191" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5392,13 +5377,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F192" s="18">
         <v>38002</v>
@@ -5415,19 +5400,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F193" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G193" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5438,13 +5423,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="F194" s="18">
         <v>38002</v>
@@ -5461,19 +5446,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F195" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G195" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5484,13 +5469,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F196" s="18">
         <v>38002</v>
@@ -5507,19 +5492,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F197" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G197" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5530,13 +5515,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F198" s="18">
         <v>38002</v>
@@ -5553,19 +5538,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F199" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G199" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5576,13 +5561,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F200" s="18">
         <v>38002</v>
@@ -5599,19 +5584,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F201" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G201" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5622,13 +5607,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F202" s="18">
         <v>38002</v>
@@ -5645,19 +5630,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F203" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G203" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5668,13 +5653,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F204" s="18">
         <v>38002</v>
@@ -5691,19 +5676,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F205" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G205" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5714,13 +5699,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F206" s="18">
         <v>38002</v>
@@ -5737,19 +5722,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F207" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G207" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5760,13 +5745,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F208" s="18">
         <v>38002</v>
@@ -5783,19 +5768,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D209" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E209" s="16" t="s">
-        <v>100</v>
-      </c>
       <c r="F209" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G209" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5806,13 +5791,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E210" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="D210" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E210" s="16" t="s">
-        <v>101</v>
       </c>
       <c r="F210" s="18">
         <v>38002</v>
@@ -5829,19 +5814,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D211" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E211" s="16" t="s">
-        <v>102</v>
-      </c>
       <c r="F211" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G211" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5852,13 +5837,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D212" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E212" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="E212" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="F212" s="18">
         <v>38002</v>
@@ -5875,19 +5860,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F213" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G213" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5898,13 +5883,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F214" s="18">
         <v>38002</v>
@@ -5921,19 +5906,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F215" s="18">
-        <v>38002</v>
+        <v>31321</v>
       </c>
       <c r="G215" s="18">
-        <v>950038</v>
+        <v>783026</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5944,19 +5929,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="D216" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E216" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E216" s="16" t="s">
-        <v>114</v>
-      </c>
       <c r="F216" s="18">
-        <v>277858</v>
+        <v>38002</v>
       </c>
       <c r="G216" s="18">
-        <v>6946444</v>
+        <v>950038</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5967,305 +5952,75 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E217" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D217" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E217" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F217" s="18">
-        <v>40520</v>
+        <v>31321</v>
       </c>
       <c r="G217" s="18">
-        <v>1013000</v>
+        <v>783026</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
       <c r="J217" s="20"/>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B218" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C218" s="16" t="s">
+      <c r="B218" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E218" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D218" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E218" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F218" s="18">
-        <v>40520</v>
-      </c>
-      <c r="G218" s="18">
-        <v>1013000</v>
-      </c>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="20"/>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B219" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C219" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D219" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E219" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F219" s="18">
-        <v>40520</v>
-      </c>
-      <c r="G219" s="18">
-        <v>1013000</v>
-      </c>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="20"/>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B220" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D220" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E220" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F220" s="18">
-        <v>40520</v>
-      </c>
-      <c r="G220" s="18">
-        <v>1013000</v>
-      </c>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="20"/>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B221" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D221" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E221" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F221" s="18">
-        <v>40520</v>
-      </c>
-      <c r="G221" s="18">
-        <v>1013000</v>
-      </c>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="20"/>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B222" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D222" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E222" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F222" s="18">
-        <v>40520</v>
-      </c>
-      <c r="G222" s="18">
-        <v>1013000</v>
-      </c>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="20"/>
+      <c r="F218" s="24">
+        <v>38002</v>
+      </c>
+      <c r="G218" s="24">
+        <v>950038</v>
+      </c>
+      <c r="H218" s="25"/>
+      <c r="I218" s="25"/>
+      <c r="J218" s="26"/>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B223" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D223" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E223" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F223" s="18">
-        <v>40520</v>
-      </c>
-      <c r="G223" s="18">
-        <v>1013000</v>
-      </c>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="20"/>
+      <c r="B223" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C223" s="32"/>
+      <c r="H223" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B224" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C224" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D224" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E224" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F224" s="18">
-        <v>40520</v>
-      </c>
-      <c r="G224" s="18">
-        <v>1013000</v>
-      </c>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="20"/>
-    </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B225" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C225" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D225" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E225" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F225" s="18">
-        <v>40520</v>
-      </c>
-      <c r="G225" s="18">
-        <v>1013000</v>
-      </c>
-      <c r="H225" s="19"/>
-      <c r="I225" s="19"/>
-      <c r="J225" s="20"/>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B226" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D226" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E226" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F226" s="18">
-        <v>40520</v>
-      </c>
-      <c r="G226" s="18">
-        <v>1013000</v>
-      </c>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="20"/>
-    </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B227" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C227" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D227" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E227" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F227" s="18">
-        <v>40520</v>
-      </c>
-      <c r="G227" s="18">
-        <v>1013000</v>
-      </c>
-      <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="20"/>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B228" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C228" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D228" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E228" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F228" s="24">
-        <v>40520</v>
-      </c>
-      <c r="G228" s="24">
-        <v>1013000</v>
-      </c>
-      <c r="H228" s="25"/>
-      <c r="I228" s="25"/>
-      <c r="J228" s="26"/>
-    </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B233" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C233" s="32"/>
-      <c r="H233" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I233" s="1"/>
-      <c r="J233" s="1"/>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B234" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C234" s="32"/>
-      <c r="H234" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I234" s="1"/>
-      <c r="J234" s="1"/>
+      <c r="B224" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C224" s="32"/>
+      <c r="H224" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="H234:J234"/>
-    <mergeCell ref="H233:J233"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="H224:J224"/>
+    <mergeCell ref="H223:J223"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004863700.xlsx
+++ b/Data/EC/NIT-9004863700.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25E9CAAA-B4C6-45D3-89A1-2548809443A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6FDD66E-ABE7-4D65-8C14-66AEBE61AD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FA28EA8A-869C-493A-9085-BCC333E132A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82A22D79-32B5-49F2-AF75-2FC2830912D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="132">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -494,9 +497,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -509,7 +510,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -703,29 +706,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -744,19 +747,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,7 +818,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0085CBFE-2995-E8EC-44B9-A15BF1D25340}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9E5E81-13CC-C761-2B43-2EDE139E632A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1160,8 +1169,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A85447-7C11-43CB-A44E-82BB16E653B1}">
-  <dimension ref="B2:J224"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999AE0C0-EE2C-440D-80EF-B98FD21EF0BD}">
+  <dimension ref="B2:J226"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1183,57 +1192,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9004863700</v>
       </c>
@@ -1262,12 +1271,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>7252757</v>
+        <v>7322080</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1278,17 +1287,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F13" s="5">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1315,13 +1324,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>125</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1334,18 +1343,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G16" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G16" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1357,18 +1366,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>277858</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>6946444</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1380,18 +1389,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G18" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G18" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1403,18 +1412,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G19" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G19" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1426,18 +1435,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G20" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G20" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1449,18 +1458,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G21" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G21" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1472,18 +1481,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G22" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G22" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1495,18 +1504,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G23" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G23" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1518,18 +1527,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G24" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G24" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1541,18 +1550,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G25" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G25" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1564,18 +1573,18 @@
       <c r="D26" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G26" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G26" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1587,18 +1596,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G27" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G27" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1610,18 +1619,18 @@
       <c r="D28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G28" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G28" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1633,18 +1642,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G29" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G29" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1656,18 +1665,18 @@
       <c r="D30" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G30" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G30" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1679,18 +1688,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G31" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G31" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1702,18 +1711,18 @@
       <c r="D32" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G32" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G32" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1725,18 +1734,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G33" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G33" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1748,18 +1757,18 @@
       <c r="D34" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G34" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G34" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1771,18 +1780,18 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G35" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G35" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1794,18 +1803,18 @@
       <c r="D36" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G36" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G36" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1817,18 +1826,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G37" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G37" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1840,18 +1849,18 @@
       <c r="D38" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G38" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G38" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1863,18 +1872,18 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G39" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G39" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1886,18 +1895,18 @@
       <c r="D40" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G40" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G40" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1909,18 +1918,18 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G41" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G41" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1932,18 +1941,18 @@
       <c r="D42" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G42" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G42" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1955,18 +1964,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G43" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G43" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1978,18 +1987,18 @@
       <c r="D44" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G44" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G44" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -2001,18 +2010,18 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G45" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G45" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -2024,18 +2033,18 @@
       <c r="D46" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G46" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G46" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -2047,18 +2056,18 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G47" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G47" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -2070,18 +2079,18 @@
       <c r="D48" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G48" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G48" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -2093,18 +2102,18 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G49" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G49" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -2116,18 +2125,18 @@
       <c r="D50" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G50" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G50" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2139,18 +2148,18 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G51" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G51" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2162,18 +2171,18 @@
       <c r="D52" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G52" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G52" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2185,18 +2194,18 @@
       <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G53" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G53" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2208,18 +2217,18 @@
       <c r="D54" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F54" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G54" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G54" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2231,18 +2240,18 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F55" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G55" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G55" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2254,18 +2263,18 @@
       <c r="D56" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G56" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G56" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2277,18 +2286,18 @@
       <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F57" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G57" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G57" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2300,18 +2309,18 @@
       <c r="D58" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F58" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G58" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G58" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2323,18 +2332,18 @@
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G59" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G59" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2346,18 +2355,18 @@
       <c r="D60" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F60" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G60" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G60" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2369,18 +2378,18 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G61" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G61" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2392,18 +2401,18 @@
       <c r="D62" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G62" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G62" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2415,18 +2424,18 @@
       <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G63" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G63" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2438,18 +2447,18 @@
       <c r="D64" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F64" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G64" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G64" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2461,18 +2470,18 @@
       <c r="D65" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F65" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G65" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G65" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2484,18 +2493,18 @@
       <c r="D66" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F66" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G66" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G66" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2507,18 +2516,18 @@
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F67" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G67" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G67" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2530,18 +2539,18 @@
       <c r="D68" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F68" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G68" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G68" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2553,18 +2562,18 @@
       <c r="D69" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F69" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G69" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G69" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2576,18 +2585,18 @@
       <c r="D70" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F70" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G70" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G70" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2599,18 +2608,18 @@
       <c r="D71" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F71" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G71" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G71" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2622,18 +2631,18 @@
       <c r="D72" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F72" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G72" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G72" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2645,18 +2654,18 @@
       <c r="D73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F73" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G73" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G73" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2668,18 +2677,18 @@
       <c r="D74" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F74" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G74" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G74" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2691,18 +2700,18 @@
       <c r="D75" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F75" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G75" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G75" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2714,18 +2723,18 @@
       <c r="D76" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F76" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G76" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G76" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2737,18 +2746,18 @@
       <c r="D77" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F77" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G77" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G77" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2760,18 +2769,18 @@
       <c r="D78" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F78" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G78" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G78" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2783,18 +2792,18 @@
       <c r="D79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F79" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G79" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G79" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2806,18 +2815,18 @@
       <c r="D80" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F80" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G80" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G80" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2829,18 +2838,18 @@
       <c r="D81" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F81" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G81" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G81" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2852,18 +2861,18 @@
       <c r="D82" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F82" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G82" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G82" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2875,18 +2884,18 @@
       <c r="D83" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F83" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G83" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G83" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2898,18 +2907,18 @@
       <c r="D84" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F84" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G84" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G84" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2921,18 +2930,18 @@
       <c r="D85" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F85" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G85" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G85" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2944,18 +2953,18 @@
       <c r="D86" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F86" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G86" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="F86" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G86" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2967,18 +2976,18 @@
       <c r="D87" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F87" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G87" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G87" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2990,18 +2999,18 @@
       <c r="D88" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F88" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G88" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G88" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -3013,18 +3022,18 @@
       <c r="D89" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G89" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F89" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G89" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -3036,18 +3045,18 @@
       <c r="D90" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F90" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G90" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="F90" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G90" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -3059,18 +3068,18 @@
       <c r="D91" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F91" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G91" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="F91" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G91" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -3082,18 +3091,18 @@
       <c r="D92" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F92" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G92" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="F92" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G92" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -3105,18 +3114,18 @@
       <c r="D93" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F93" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G93" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="F93" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G93" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -3128,18 +3137,18 @@
       <c r="D94" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F94" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G94" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="F94" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G94" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -3151,18 +3160,18 @@
       <c r="D95" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F95" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G95" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="F95" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G95" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3174,18 +3183,18 @@
       <c r="D96" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F96" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G96" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="F96" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G96" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3197,18 +3206,18 @@
       <c r="D97" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F97" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G97" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="F97" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G97" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3220,18 +3229,18 @@
       <c r="D98" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F98" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G98" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="F98" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G98" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3243,18 +3252,18 @@
       <c r="D99" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F99" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G99" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="F99" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G99" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3266,18 +3275,18 @@
       <c r="D100" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F100" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G100" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="F100" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G100" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3289,18 +3298,18 @@
       <c r="D101" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F101" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G101" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="F101" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G101" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3312,18 +3321,18 @@
       <c r="D102" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F102" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G102" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="F102" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G102" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3335,18 +3344,18 @@
       <c r="D103" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F103" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G103" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="F103" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G103" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3358,18 +3367,18 @@
       <c r="D104" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F104" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G104" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="F104" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G104" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3381,18 +3390,18 @@
       <c r="D105" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F105" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G105" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G105" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3404,18 +3413,18 @@
       <c r="D106" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F106" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G106" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="F106" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G106" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3427,18 +3436,18 @@
       <c r="D107" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F107" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G107" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="F107" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G107" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3450,18 +3459,18 @@
       <c r="D108" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F108" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G108" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="F108" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G108" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3473,18 +3482,18 @@
       <c r="D109" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F109" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G109" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="F109" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G109" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3496,18 +3505,18 @@
       <c r="D110" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F110" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G110" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="F110" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G110" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
@@ -3519,18 +3528,18 @@
       <c r="D111" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F111" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G111" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="F111" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G111" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
@@ -3542,18 +3551,18 @@
       <c r="D112" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F112" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G112" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="F112" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G112" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
@@ -3565,18 +3574,18 @@
       <c r="D113" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F113" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G113" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="F113" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G113" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
@@ -3588,18 +3597,18 @@
       <c r="D114" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F114" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G114" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="F114" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G114" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
@@ -3611,18 +3620,18 @@
       <c r="D115" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F115" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G115" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="F115" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G115" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
@@ -3634,18 +3643,18 @@
       <c r="D116" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F116" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G116" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="F116" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G116" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
@@ -3657,18 +3666,18 @@
       <c r="D117" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F117" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G117" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="F117" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G117" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
@@ -3680,18 +3689,18 @@
       <c r="D118" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F118" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G118" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="F118" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G118" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
@@ -3703,18 +3712,18 @@
       <c r="D119" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F119" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G119" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="F119" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G119" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
@@ -3726,18 +3735,18 @@
       <c r="D120" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F120" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G120" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="F120" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G120" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
@@ -3749,18 +3758,18 @@
       <c r="D121" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F121" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G121" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="F121" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G121" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
@@ -3772,18 +3781,18 @@
       <c r="D122" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F122" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G122" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="F122" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G122" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="21"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
@@ -3795,18 +3804,18 @@
       <c r="D123" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F123" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G123" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
+      <c r="F123" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G123" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="21"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
@@ -3818,18 +3827,18 @@
       <c r="D124" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F124" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G124" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
+      <c r="F124" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G124" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
@@ -3841,18 +3850,18 @@
       <c r="D125" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F125" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G125" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
+      <c r="F125" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G125" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="21"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
@@ -3864,18 +3873,18 @@
       <c r="D126" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F126" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G126" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
+      <c r="F126" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G126" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="21"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
@@ -3887,18 +3896,18 @@
       <c r="D127" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F127" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G127" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
+      <c r="F127" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G127" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="21"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
@@ -3910,18 +3919,18 @@
       <c r="D128" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F128" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G128" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
+      <c r="F128" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G128" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="21"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
@@ -3933,18 +3942,18 @@
       <c r="D129" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F129" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G129" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
+      <c r="F129" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G129" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="21"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
@@ -3956,18 +3965,18 @@
       <c r="D130" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F130" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G130" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
+      <c r="F130" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G130" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="21"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
@@ -3979,18 +3988,18 @@
       <c r="D131" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F131" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G131" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
+      <c r="F131" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G131" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="21"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
@@ -4002,18 +4011,18 @@
       <c r="D132" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F132" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G132" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
+      <c r="F132" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G132" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="21"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
@@ -4025,18 +4034,18 @@
       <c r="D133" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F133" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G133" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
+      <c r="F133" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G133" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="21"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
@@ -4048,18 +4057,18 @@
       <c r="D134" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="E134" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F134" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G134" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
+      <c r="F134" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G134" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="21"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
@@ -4071,18 +4080,18 @@
       <c r="D135" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F135" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G135" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
+      <c r="F135" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G135" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="21"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
@@ -4094,18 +4103,18 @@
       <c r="D136" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F136" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G136" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
+      <c r="F136" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G136" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="21"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
@@ -4117,18 +4126,18 @@
       <c r="D137" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F137" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G137" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
+      <c r="F137" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G137" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="21"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
@@ -4140,18 +4149,18 @@
       <c r="D138" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F138" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G138" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
+      <c r="F138" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G138" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="21"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
@@ -4163,18 +4172,18 @@
       <c r="D139" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F139" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G139" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
+      <c r="F139" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G139" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="21"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
@@ -4186,18 +4195,18 @@
       <c r="D140" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F140" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G140" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
+      <c r="F140" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G140" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="21"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
@@ -4209,18 +4218,18 @@
       <c r="D141" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F141" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G141" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
+      <c r="F141" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G141" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="21"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
@@ -4232,18 +4241,18 @@
       <c r="D142" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F142" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G142" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
+      <c r="F142" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G142" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="21"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
@@ -4255,18 +4264,18 @@
       <c r="D143" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F143" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G143" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
+      <c r="F143" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G143" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="21"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
@@ -4278,18 +4287,18 @@
       <c r="D144" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E144" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F144" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G144" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
+      <c r="F144" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G144" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="21"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
@@ -4301,18 +4310,18 @@
       <c r="D145" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F145" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G145" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
+      <c r="F145" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G145" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="21"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
@@ -4324,18 +4333,18 @@
       <c r="D146" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F146" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G146" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
+      <c r="F146" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G146" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="21"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
@@ -4347,18 +4356,18 @@
       <c r="D147" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F147" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G147" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
+      <c r="F147" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G147" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="21"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
@@ -4370,18 +4379,18 @@
       <c r="D148" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F148" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G148" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
+      <c r="F148" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G148" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="21"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
@@ -4393,18 +4402,18 @@
       <c r="D149" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F149" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G149" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
+      <c r="F149" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G149" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="21"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
@@ -4416,18 +4425,18 @@
       <c r="D150" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F150" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G150" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
+      <c r="F150" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G150" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="21"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
@@ -4439,18 +4448,18 @@
       <c r="D151" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="E151" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F151" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G151" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
+      <c r="F151" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G151" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="21"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
@@ -4462,18 +4471,18 @@
       <c r="D152" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F152" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G152" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
+      <c r="F152" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G152" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="21"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
@@ -4485,18 +4494,18 @@
       <c r="D153" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F153" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G153" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
+      <c r="F153" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G153" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="21"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
@@ -4508,18 +4517,18 @@
       <c r="D154" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E154" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F154" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G154" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
+      <c r="F154" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G154" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="21"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
@@ -4531,18 +4540,18 @@
       <c r="D155" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E155" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F155" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G155" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
+      <c r="F155" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G155" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="21"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
@@ -4554,18 +4563,18 @@
       <c r="D156" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F156" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G156" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
+      <c r="F156" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G156" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="21"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="15" t="s">
@@ -4577,18 +4586,18 @@
       <c r="D157" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F157" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G157" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
+      <c r="F157" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G157" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="21"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
@@ -4600,18 +4609,18 @@
       <c r="D158" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="E158" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F158" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G158" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
+      <c r="F158" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G158" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="21"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="15" t="s">
@@ -4623,18 +4632,18 @@
       <c r="D159" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E159" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F159" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G159" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
+      <c r="F159" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G159" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="21"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="15" t="s">
@@ -4646,18 +4655,18 @@
       <c r="D160" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F160" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G160" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
+      <c r="F160" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G160" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="21"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
@@ -4669,18 +4678,18 @@
       <c r="D161" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="E161" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F161" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G161" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
+      <c r="F161" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G161" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="21"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
@@ -4692,18 +4701,18 @@
       <c r="D162" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F162" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G162" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
+      <c r="F162" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G162" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="21"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
@@ -4715,18 +4724,18 @@
       <c r="D163" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F163" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G163" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
+      <c r="F163" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G163" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="21"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
@@ -4738,18 +4747,18 @@
       <c r="D164" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F164" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G164" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
+      <c r="F164" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G164" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="21"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
@@ -4761,18 +4770,18 @@
       <c r="D165" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="E165" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F165" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G165" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
+      <c r="F165" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G165" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="21"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
@@ -4784,18 +4793,18 @@
       <c r="D166" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="E166" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F166" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G166" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
+      <c r="F166" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G166" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="21"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B167" s="15" t="s">
@@ -4807,18 +4816,18 @@
       <c r="D167" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="E167" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F167" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G167" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
+      <c r="F167" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G167" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="21"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
@@ -4830,18 +4839,18 @@
       <c r="D168" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="E168" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F168" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G168" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
+      <c r="F168" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G168" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="21"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B169" s="15" t="s">
@@ -4853,18 +4862,18 @@
       <c r="D169" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="E169" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F169" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G169" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
+      <c r="F169" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G169" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="21"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B170" s="15" t="s">
@@ -4876,18 +4885,18 @@
       <c r="D170" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E170" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F170" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G170" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
+      <c r="F170" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G170" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="21"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="15" t="s">
@@ -4899,18 +4908,18 @@
       <c r="D171" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E171" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F171" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G171" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
+      <c r="F171" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G171" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="21"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B172" s="15" t="s">
@@ -4922,18 +4931,18 @@
       <c r="D172" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E172" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F172" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G172" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
+      <c r="F172" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G172" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="21"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B173" s="15" t="s">
@@ -4945,18 +4954,18 @@
       <c r="D173" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E173" s="16" t="s">
+      <c r="E173" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F173" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G173" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
+      <c r="F173" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G173" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+      <c r="J173" s="21"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B174" s="15" t="s">
@@ -4968,18 +4977,18 @@
       <c r="D174" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E174" s="16" t="s">
+      <c r="E174" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F174" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G174" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
+      <c r="F174" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G174" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="21"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B175" s="15" t="s">
@@ -4991,18 +5000,18 @@
       <c r="D175" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E175" s="16" t="s">
+      <c r="E175" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F175" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G175" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
+      <c r="F175" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G175" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="21"/>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B176" s="15" t="s">
@@ -5014,18 +5023,18 @@
       <c r="D176" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E176" s="16" t="s">
+      <c r="E176" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F176" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G176" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
+      <c r="F176" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G176" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="21"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B177" s="15" t="s">
@@ -5037,18 +5046,18 @@
       <c r="D177" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E177" s="16" t="s">
+      <c r="E177" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F177" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G177" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
+      <c r="F177" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G177" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+      <c r="J177" s="21"/>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B178" s="15" t="s">
@@ -5060,18 +5069,18 @@
       <c r="D178" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E178" s="16" t="s">
+      <c r="E178" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F178" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G178" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="20"/>
+      <c r="F178" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G178" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
+      <c r="J178" s="21"/>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B179" s="15" t="s">
@@ -5083,18 +5092,18 @@
       <c r="D179" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E179" s="16" t="s">
+      <c r="E179" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F179" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G179" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="20"/>
+      <c r="F179" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G179" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
+      <c r="J179" s="21"/>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B180" s="15" t="s">
@@ -5106,18 +5115,18 @@
       <c r="D180" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E180" s="16" t="s">
+      <c r="E180" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F180" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G180" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="20"/>
+      <c r="F180" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G180" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
+      <c r="J180" s="21"/>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B181" s="15" t="s">
@@ -5129,18 +5138,18 @@
       <c r="D181" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E181" s="16" t="s">
+      <c r="E181" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F181" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G181" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="20"/>
+      <c r="F181" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G181" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="21"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B182" s="15" t="s">
@@ -5152,18 +5161,18 @@
       <c r="D182" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E182" s="16" t="s">
+      <c r="E182" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F182" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G182" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="20"/>
+      <c r="F182" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G182" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
+      <c r="J182" s="21"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B183" s="15" t="s">
@@ -5175,18 +5184,18 @@
       <c r="D183" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E183" s="16" t="s">
+      <c r="E183" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F183" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G183" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="20"/>
+      <c r="F183" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G183" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
+      <c r="J183" s="21"/>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B184" s="15" t="s">
@@ -5198,18 +5207,18 @@
       <c r="D184" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E184" s="16" t="s">
+      <c r="E184" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F184" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G184" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="20"/>
+      <c r="F184" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G184" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
+      <c r="J184" s="21"/>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B185" s="15" t="s">
@@ -5221,18 +5230,18 @@
       <c r="D185" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E185" s="16" t="s">
+      <c r="E185" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F185" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G185" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="20"/>
+      <c r="F185" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G185" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
+      <c r="J185" s="21"/>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B186" s="15" t="s">
@@ -5244,18 +5253,18 @@
       <c r="D186" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E186" s="16" t="s">
+      <c r="E186" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F186" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G186" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="20"/>
+      <c r="F186" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G186" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
+      <c r="J186" s="21"/>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B187" s="15" t="s">
@@ -5267,18 +5276,18 @@
       <c r="D187" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E187" s="16" t="s">
+      <c r="E187" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F187" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G187" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="20"/>
+      <c r="F187" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G187" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
+      <c r="J187" s="21"/>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B188" s="15" t="s">
@@ -5290,18 +5299,18 @@
       <c r="D188" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E188" s="16" t="s">
+      <c r="E188" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F188" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G188" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="20"/>
+      <c r="F188" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G188" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H188" s="20"/>
+      <c r="I188" s="20"/>
+      <c r="J188" s="21"/>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B189" s="15" t="s">
@@ -5313,18 +5322,18 @@
       <c r="D189" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E189" s="16" t="s">
+      <c r="E189" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F189" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G189" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="20"/>
+      <c r="F189" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G189" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H189" s="20"/>
+      <c r="I189" s="20"/>
+      <c r="J189" s="21"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B190" s="15" t="s">
@@ -5336,18 +5345,18 @@
       <c r="D190" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E190" s="16" t="s">
+      <c r="E190" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F190" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G190" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="20"/>
+      <c r="F190" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G190" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H190" s="20"/>
+      <c r="I190" s="20"/>
+      <c r="J190" s="21"/>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B191" s="15" t="s">
@@ -5359,18 +5368,18 @@
       <c r="D191" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E191" s="16" t="s">
+      <c r="E191" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F191" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G191" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="20"/>
+      <c r="F191" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G191" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
+      <c r="J191" s="21"/>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B192" s="15" t="s">
@@ -5382,18 +5391,18 @@
       <c r="D192" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E192" s="16" t="s">
+      <c r="E192" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F192" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G192" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="20"/>
+      <c r="F192" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G192" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
+      <c r="J192" s="21"/>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B193" s="15" t="s">
@@ -5405,18 +5414,18 @@
       <c r="D193" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E193" s="16" t="s">
+      <c r="E193" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F193" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G193" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="20"/>
+      <c r="F193" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G193" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H193" s="20"/>
+      <c r="I193" s="20"/>
+      <c r="J193" s="21"/>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B194" s="15" t="s">
@@ -5428,18 +5437,18 @@
       <c r="D194" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E194" s="16" t="s">
+      <c r="E194" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F194" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G194" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="20"/>
+      <c r="F194" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G194" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H194" s="20"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="21"/>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B195" s="15" t="s">
@@ -5451,18 +5460,18 @@
       <c r="D195" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E195" s="16" t="s">
+      <c r="E195" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F195" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G195" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
+      <c r="F195" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G195" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H195" s="20"/>
+      <c r="I195" s="20"/>
+      <c r="J195" s="21"/>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B196" s="15" t="s">
@@ -5474,18 +5483,18 @@
       <c r="D196" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E196" s="16" t="s">
+      <c r="E196" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F196" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G196" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="20"/>
+      <c r="F196" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G196" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H196" s="20"/>
+      <c r="I196" s="20"/>
+      <c r="J196" s="21"/>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B197" s="15" t="s">
@@ -5497,18 +5506,18 @@
       <c r="D197" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E197" s="16" t="s">
+      <c r="E197" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F197" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G197" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="20"/>
+      <c r="F197" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G197" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H197" s="20"/>
+      <c r="I197" s="20"/>
+      <c r="J197" s="21"/>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B198" s="15" t="s">
@@ -5520,18 +5529,18 @@
       <c r="D198" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E198" s="16" t="s">
+      <c r="E198" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F198" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G198" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="20"/>
+      <c r="F198" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G198" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
+      <c r="J198" s="21"/>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B199" s="15" t="s">
@@ -5543,18 +5552,18 @@
       <c r="D199" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E199" s="16" t="s">
+      <c r="E199" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F199" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G199" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="20"/>
+      <c r="F199" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G199" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H199" s="20"/>
+      <c r="I199" s="20"/>
+      <c r="J199" s="21"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B200" s="15" t="s">
@@ -5566,18 +5575,18 @@
       <c r="D200" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E200" s="16" t="s">
+      <c r="E200" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F200" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G200" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="20"/>
+      <c r="F200" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G200" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H200" s="20"/>
+      <c r="I200" s="20"/>
+      <c r="J200" s="21"/>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B201" s="15" t="s">
@@ -5589,18 +5598,18 @@
       <c r="D201" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E201" s="16" t="s">
+      <c r="E201" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F201" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G201" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="20"/>
+      <c r="F201" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G201" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H201" s="20"/>
+      <c r="I201" s="20"/>
+      <c r="J201" s="21"/>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B202" s="15" t="s">
@@ -5612,18 +5621,18 @@
       <c r="D202" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E202" s="16" t="s">
+      <c r="E202" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F202" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G202" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="20"/>
+      <c r="F202" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G202" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H202" s="20"/>
+      <c r="I202" s="20"/>
+      <c r="J202" s="21"/>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B203" s="15" t="s">
@@ -5635,18 +5644,18 @@
       <c r="D203" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E203" s="16" t="s">
+      <c r="E203" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F203" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G203" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="20"/>
+      <c r="F203" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G203" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H203" s="20"/>
+      <c r="I203" s="20"/>
+      <c r="J203" s="21"/>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B204" s="15" t="s">
@@ -5658,18 +5667,18 @@
       <c r="D204" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E204" s="16" t="s">
+      <c r="E204" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F204" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G204" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="20"/>
+      <c r="F204" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G204" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H204" s="20"/>
+      <c r="I204" s="20"/>
+      <c r="J204" s="21"/>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B205" s="15" t="s">
@@ -5681,18 +5690,18 @@
       <c r="D205" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E205" s="16" t="s">
+      <c r="E205" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F205" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G205" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="20"/>
+      <c r="F205" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G205" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H205" s="20"/>
+      <c r="I205" s="20"/>
+      <c r="J205" s="21"/>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B206" s="15" t="s">
@@ -5704,18 +5713,18 @@
       <c r="D206" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E206" s="16" t="s">
+      <c r="E206" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F206" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G206" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" s="20"/>
+      <c r="F206" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G206" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H206" s="20"/>
+      <c r="I206" s="20"/>
+      <c r="J206" s="21"/>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B207" s="15" t="s">
@@ -5727,18 +5736,18 @@
       <c r="D207" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E207" s="16" t="s">
+      <c r="E207" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F207" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G207" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" s="20"/>
+      <c r="F207" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G207" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H207" s="20"/>
+      <c r="I207" s="20"/>
+      <c r="J207" s="21"/>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B208" s="15" t="s">
@@ -5750,18 +5759,18 @@
       <c r="D208" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E208" s="16" t="s">
+      <c r="E208" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F208" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G208" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-      <c r="J208" s="20"/>
+      <c r="F208" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G208" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H208" s="20"/>
+      <c r="I208" s="20"/>
+      <c r="J208" s="21"/>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B209" s="15" t="s">
@@ -5773,18 +5782,18 @@
       <c r="D209" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E209" s="16" t="s">
+      <c r="E209" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F209" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G209" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="20"/>
+      <c r="F209" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G209" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H209" s="20"/>
+      <c r="I209" s="20"/>
+      <c r="J209" s="21"/>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B210" s="15" t="s">
@@ -5796,18 +5805,18 @@
       <c r="D210" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E210" s="16" t="s">
+      <c r="E210" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F210" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G210" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="20"/>
+      <c r="F210" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G210" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H210" s="20"/>
+      <c r="I210" s="20"/>
+      <c r="J210" s="21"/>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B211" s="15" t="s">
@@ -5819,18 +5828,18 @@
       <c r="D211" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E211" s="16" t="s">
+      <c r="E211" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F211" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G211" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="20"/>
+      <c r="F211" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G211" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H211" s="20"/>
+      <c r="I211" s="20"/>
+      <c r="J211" s="21"/>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B212" s="15" t="s">
@@ -5842,18 +5851,18 @@
       <c r="D212" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E212" s="16" t="s">
+      <c r="E212" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F212" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G212" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="20"/>
+      <c r="F212" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G212" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H212" s="20"/>
+      <c r="I212" s="20"/>
+      <c r="J212" s="21"/>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B213" s="15" t="s">
@@ -5865,18 +5874,18 @@
       <c r="D213" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E213" s="16" t="s">
+      <c r="E213" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F213" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G213" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="20"/>
+      <c r="F213" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G213" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H213" s="20"/>
+      <c r="I213" s="20"/>
+      <c r="J213" s="21"/>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B214" s="15" t="s">
@@ -5888,18 +5897,18 @@
       <c r="D214" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E214" s="16" t="s">
+      <c r="E214" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F214" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G214" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="20"/>
+      <c r="F214" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G214" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H214" s="20"/>
+      <c r="I214" s="20"/>
+      <c r="J214" s="21"/>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B215" s="15" t="s">
@@ -5911,18 +5920,18 @@
       <c r="D215" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E215" s="16" t="s">
+      <c r="E215" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F215" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G215" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="20"/>
+      <c r="F215" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G215" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H215" s="20"/>
+      <c r="I215" s="20"/>
+      <c r="J215" s="21"/>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B216" s="15" t="s">
@@ -5934,18 +5943,18 @@
       <c r="D216" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E216" s="16" t="s">
+      <c r="E216" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F216" s="18">
-        <v>38002</v>
-      </c>
-      <c r="G216" s="18">
-        <v>950038</v>
-      </c>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="20"/>
+      <c r="F216" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G216" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H216" s="20"/>
+      <c r="I216" s="20"/>
+      <c r="J216" s="21"/>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B217" s="15" t="s">
@@ -5957,70 +5966,116 @@
       <c r="D217" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E217" s="16" t="s">
+      <c r="E217" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F217" s="18">
-        <v>31321</v>
-      </c>
-      <c r="G217" s="18">
-        <v>783026</v>
-      </c>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="20"/>
+      <c r="F217" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G217" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H217" s="20"/>
+      <c r="I217" s="20"/>
+      <c r="J217" s="21"/>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B218" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C218" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D218" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E218" s="22" t="s">
+      <c r="B218" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E218" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F218" s="24">
-        <v>38002</v>
-      </c>
-      <c r="G218" s="24">
-        <v>950038</v>
-      </c>
-      <c r="H218" s="25"/>
-      <c r="I218" s="25"/>
-      <c r="J218" s="26"/>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B223" s="32" t="s">
+      <c r="F218" s="19">
+        <v>38002</v>
+      </c>
+      <c r="G218" s="19">
+        <v>950038</v>
+      </c>
+      <c r="H218" s="20"/>
+      <c r="I218" s="20"/>
+      <c r="J218" s="21"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B219" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E219" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F219" s="19">
+        <v>31321</v>
+      </c>
+      <c r="G219" s="19">
+        <v>783026</v>
+      </c>
+      <c r="H219" s="20"/>
+      <c r="I219" s="20"/>
+      <c r="J219" s="21"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B220" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E220" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F220" s="26">
+        <v>38002</v>
+      </c>
+      <c r="G220" s="26">
+        <v>950038</v>
+      </c>
+      <c r="H220" s="27"/>
+      <c r="I220" s="27"/>
+      <c r="J220" s="28"/>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B225" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C225" s="34"/>
+      <c r="H225" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B226" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C223" s="32"/>
-      <c r="H223" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B224" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C224" s="32"/>
-      <c r="H224" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I224" s="1"/>
-      <c r="J224" s="1"/>
+      <c r="C226" s="34"/>
+      <c r="H226" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="H224:J224"/>
-    <mergeCell ref="H223:J223"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="H226:J226"/>
+    <mergeCell ref="H225:J225"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
